--- a/仕様書/モルモットホイーラン_仕様書_3Dリソース.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_3Dリソース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A01684-E3F2-4802-8349-8629CD37FEA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B297796-B7BD-46CC-8457-4F2F61126D58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hamster.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>scotch_tape.fbx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,21 +250,6 @@
   </si>
   <si>
     <t>オープニングムービー・タイトル画面で使用するオブジェクト。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゴールデンハムスターをイメージ
-・四足歩行で移動する
-　▼理想のイラスト</t>
-    <rPh sb="18" eb="22">
-      <t>ヨンソクホコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>リソウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -415,6 +396,35 @@
   </si>
   <si>
     <t>ゲームタイトル名を「モルモットホイーラン」に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モルモットをイメージ
+・四足歩行で移動する
+　▼理想のイラスト</t>
+    <rPh sb="13" eb="17">
+      <t>ヨンソクホコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morumotto.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト名「humstar」→「morumotto」に変更</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1202,8 +1212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6026150" y="13779500"/>
-          <a:ext cx="1988731" cy="1673860"/>
+          <a:off x="6073140" y="14081760"/>
+          <a:ext cx="2005241" cy="1711960"/>
           <a:chOff x="6073140" y="14084300"/>
           <a:chExt cx="2005241" cy="1711960"/>
         </a:xfrm>
@@ -1694,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2469,7 +2479,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
@@ -2534,7 +2544,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -2551,7 +2561,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -2592,7 +2602,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="7">
+        <v>44298</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2603,7 +2615,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="2"/>
+      <c r="T18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -2611,7 +2625,9 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -2626,7 +2642,9 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
+      <c r="AQ18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -3934,7 +3952,7 @@
   <sheetData>
     <row r="1" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4401,7 +4419,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="I13" s="46" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -4421,7 +4439,7 @@
       <c r="Y13" s="46"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB13" s="48"/>
       <c r="AC13" s="48"/>
@@ -4852,7 +4870,7 @@
       <c r="AI18" s="37"/>
       <c r="AJ18" s="37"/>
       <c r="AK18" s="38" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL18" s="39"/>
       <c r="AM18" s="39"/>
@@ -6519,7 +6537,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="I41" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
@@ -6539,7 +6557,7 @@
       <c r="Y41" s="46"/>
       <c r="Z41" s="46"/>
       <c r="AA41" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB41" s="48"/>
       <c r="AC41" s="48"/>
@@ -6970,7 +6988,7 @@
       <c r="AI46" s="37"/>
       <c r="AJ46" s="37"/>
       <c r="AK46" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AL46" s="39"/>
       <c r="AM46" s="39"/>
@@ -8922,7 +8940,7 @@
       <c r="AI74" s="37"/>
       <c r="AJ74" s="37"/>
       <c r="AK74" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL74" s="39"/>
       <c r="AM74" s="39"/>
@@ -10839,7 +10857,7 @@
       <c r="AI102" s="37"/>
       <c r="AJ102" s="37"/>
       <c r="AK102" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL102" s="39"/>
       <c r="AM102" s="39"/>
@@ -14671,7 +14689,7 @@
       <c r="AI158" s="37"/>
       <c r="AJ158" s="37"/>
       <c r="AK158" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL158" s="39"/>
       <c r="AM158" s="39"/>

--- a/仕様書/モルモットホイーラン_仕様書_3Dリソース.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_3Dリソース.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B297796-B7BD-46CC-8457-4F2F61126D58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045FA64-27AD-4CEF-AE47-C77EE4BBA430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オープニングムービー・タイトル画面で使用するオブジェクト。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ハムスターをセロハンテープの輪の隙間にいれる為のオブジェクト
 ・輪の側面はガラスによって脱出することができない仕様となっている。
 　▼理想のイラスト</t>
@@ -344,30 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・黄色の旗
-・プレイヤーが触れた際、ステージクリアとなり、次のステージに進むことができる。
-　▼理想のイラスト</t>
-    <rPh sb="1" eb="3">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハタ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハムスター・セロハンテープの項目追加と各種項目のテクスチャを追加</t>
     <rPh sb="14" eb="18">
       <t>コウモクツイカ</t>
@@ -424,6 +396,54 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープニングムービーで使用するオブジェクト。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・黄色の旗
+・プレイヤーが触れた際、ステージクリアとなり、次のステージに進むことができる。
+・旗の色はUnityで設定。
+　▼理想のイラスト</t>
+    <rPh sb="1" eb="3">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モルモット・セロハンテープ・はさみ・旗の3Dモデルを追加</t>
+    <rPh sb="18" eb="19">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1088,16 +1108,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>98303</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>43645</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>71558</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1126,7 +1146,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6179063" y="3743960"/>
+          <a:off x="6019043" y="3903980"/>
           <a:ext cx="1705562" cy="1760658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1212,7 +1232,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6073140" y="14081760"/>
+          <a:off x="6073140" y="14084300"/>
           <a:ext cx="2005241" cy="1711960"/>
           <a:chOff x="6073140" y="14084300"/>
           <a:chExt cx="2005241" cy="1711960"/>
@@ -1344,15 +1364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>115569</xdr:rowOff>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>123189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>21281</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>28901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1381,8 +1401,208 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6062980" y="28332429"/>
+          <a:off x="6078220" y="28865829"/>
           <a:ext cx="1305560" cy="1307792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>125208</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F808A6F-62DF-49E3-AD7C-CFF1F4535075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493519" y="3351710"/>
+          <a:ext cx="4072369" cy="2279469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73A0196-C650-4033-B606-B0AC04DB7AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394459" y="8282220"/>
+          <a:ext cx="4241801" cy="2401020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>156051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>50115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AF44FF-A66E-4CB8-92F1-F4566E319434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="18032571"/>
+          <a:ext cx="4183380" cy="2347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>89061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2441AF35-D1F4-4495-B508-F9C42CD493BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1386840" y="27873960"/>
+          <a:ext cx="4191000" cy="2359821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,27 +1917,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:73" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="21" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:73" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20"/>
     </row>
-    <row r="6" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1948,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -1804,7 +2024,7 @@
       <c r="BT7" s="32"/>
       <c r="BU7" s="32"/>
     </row>
-    <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +2100,7 @@
       <c r="BT8" s="32"/>
       <c r="BU8" s="32"/>
     </row>
-    <row r="9" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1954,7 +2174,7 @@
       <c r="BT9" s="32"/>
       <c r="BU9" s="32"/>
     </row>
-    <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2036,7 +2256,7 @@
       <c r="BT10" s="31"/>
       <c r="BU10" s="31"/>
     </row>
-    <row r="11" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2110,7 +2330,7 @@
       <c r="BT11" s="31"/>
       <c r="BU11" s="31"/>
     </row>
-    <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2184,7 +2404,7 @@
       <c r="BT12" s="31"/>
       <c r="BU12" s="31"/>
     </row>
-    <row r="13" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2266,7 +2486,7 @@
       <c r="BT13" s="6"/>
       <c r="BU13" s="6"/>
     </row>
-    <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2348,7 +2568,7 @@
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
     </row>
-    <row r="15" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2430,7 +2650,7 @@
       <c r="BT15" s="2"/>
       <c r="BU15" s="2"/>
     </row>
-    <row r="16" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2479,7 +2699,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
@@ -2512,7 +2732,7 @@
       <c r="BT16" s="2"/>
       <c r="BU16" s="2"/>
     </row>
-    <row r="17" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2544,7 +2764,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -2561,7 +2781,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -2594,7 +2814,7 @@
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
     </row>
-    <row r="18" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2643,7 +2863,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
@@ -2676,7 +2896,7 @@
       <c r="BT18" s="2"/>
       <c r="BU18" s="2"/>
     </row>
-    <row r="19" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2684,7 +2904,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="7">
+        <v>44320</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2695,7 +2917,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -2703,7 +2927,9 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -2718,7 +2944,9 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
+      <c r="AQ19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
@@ -2750,7 +2978,7 @@
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
     </row>
-    <row r="20" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2824,7 +3052,7 @@
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
     </row>
-    <row r="21" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2898,7 +3126,7 @@
       <c r="BT21" s="2"/>
       <c r="BU21" s="2"/>
     </row>
-    <row r="22" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2972,7 +3200,7 @@
       <c r="BT22" s="2"/>
       <c r="BU22" s="2"/>
     </row>
-    <row r="23" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3046,7 +3274,7 @@
       <c r="BT23" s="2"/>
       <c r="BU23" s="2"/>
     </row>
-    <row r="24" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3120,7 +3348,7 @@
       <c r="BT24" s="2"/>
       <c r="BU24" s="2"/>
     </row>
-    <row r="25" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3194,7 +3422,7 @@
       <c r="BT25" s="2"/>
       <c r="BU25" s="2"/>
     </row>
-    <row r="26" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3268,7 +3496,7 @@
       <c r="BT26" s="2"/>
       <c r="BU26" s="2"/>
     </row>
-    <row r="27" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3342,7 +3570,7 @@
       <c r="BT27" s="2"/>
       <c r="BU27" s="2"/>
     </row>
-    <row r="28" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3416,7 +3644,7 @@
       <c r="BT28" s="2"/>
       <c r="BU28" s="2"/>
     </row>
-    <row r="29" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3490,7 +3718,7 @@
       <c r="BT29" s="2"/>
       <c r="BU29" s="2"/>
     </row>
-    <row r="30" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3564,7 +3792,7 @@
       <c r="BT30" s="2"/>
       <c r="BU30" s="2"/>
     </row>
-    <row r="31" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3638,7 +3866,7 @@
       <c r="BT31" s="2"/>
       <c r="BU31" s="2"/>
     </row>
-    <row r="32" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3647,7 +3875,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3656,7 +3884,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3665,7 +3893,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3674,7 +3902,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3683,7 +3911,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3692,7 +3920,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -3701,7 +3929,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3710,7 +3938,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3719,7 +3947,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3728,7 +3956,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3737,7 +3965,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3746,7 +3974,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3755,7 +3983,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3764,7 +3992,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3773,7 +4001,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3782,7 +4010,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3791,7 +4019,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3800,7 +4028,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -3809,7 +4037,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3945,27 +4173,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="21" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +4204,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -4061,7 +4289,7 @@
       <c r="CC7" s="57"/>
       <c r="CD7" s="58"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -4146,7 +4374,7 @@
       <c r="CC8" s="60"/>
       <c r="CD8" s="61"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -4229,7 +4457,7 @@
       <c r="CC9" s="63"/>
       <c r="CD9" s="64"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4238,7 +4466,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4327,7 +4555,7 @@
       <c r="CC11" s="36"/>
       <c r="CD11" s="36"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4410,7 +4638,7 @@
       <c r="CC12" s="36"/>
       <c r="CD12" s="36"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4419,7 +4647,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="I13" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -4439,7 +4667,7 @@
       <c r="Y13" s="46"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="47" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB13" s="48"/>
       <c r="AC13" s="48"/>
@@ -4499,7 +4727,7 @@
       <c r="CC13" s="46"/>
       <c r="CD13" s="46"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4582,7 +4810,7 @@
       <c r="CC14" s="46"/>
       <c r="CD14" s="46"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4665,7 +4893,7 @@
       <c r="CC15" s="46"/>
       <c r="CD15" s="46"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4750,7 +4978,7 @@
       <c r="CC16" s="36"/>
       <c r="CD16" s="36"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4833,7 +5061,7 @@
       <c r="CC17" s="36"/>
       <c r="CD17" s="36"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4870,7 +5098,7 @@
       <c r="AI18" s="37"/>
       <c r="AJ18" s="37"/>
       <c r="AK18" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AL18" s="39"/>
       <c r="AM18" s="39"/>
@@ -4918,7 +5146,7 @@
       <c r="CC18" s="39"/>
       <c r="CD18" s="39"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -5001,7 +5229,7 @@
       <c r="CC19" s="39"/>
       <c r="CD19" s="39"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5084,7 +5312,7 @@
       <c r="CC20" s="39"/>
       <c r="CD20" s="39"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -5167,7 +5395,7 @@
       <c r="CC21" s="39"/>
       <c r="CD21" s="39"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -5250,7 +5478,7 @@
       <c r="CC22" s="39"/>
       <c r="CD22" s="39"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5333,7 +5561,7 @@
       <c r="CC23" s="39"/>
       <c r="CD23" s="39"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -5416,7 +5644,7 @@
       <c r="CC24" s="39"/>
       <c r="CD24" s="39"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -5499,7 +5727,7 @@
       <c r="CC25" s="39"/>
       <c r="CD25" s="39"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5582,7 +5810,7 @@
       <c r="CC26" s="39"/>
       <c r="CD26" s="39"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5665,7 +5893,7 @@
       <c r="CC27" s="39"/>
       <c r="CD27" s="39"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -5748,7 +5976,7 @@
       <c r="CC28" s="39"/>
       <c r="CD28" s="39"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5831,7 +6059,7 @@
       <c r="CC29" s="39"/>
       <c r="CD29" s="39"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -5914,7 +6142,7 @@
       <c r="CC30" s="39"/>
       <c r="CD30" s="39"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -5997,7 +6225,7 @@
       <c r="CC31" s="39"/>
       <c r="CD31" s="39"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -6080,7 +6308,7 @@
       <c r="CC32" s="39"/>
       <c r="CD32" s="39"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -6163,7 +6391,7 @@
       <c r="CC33" s="39"/>
       <c r="CD33" s="39"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -6246,7 +6474,7 @@
       <c r="CC34" s="39"/>
       <c r="CD34" s="39"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -6329,7 +6557,7 @@
       <c r="CC35" s="39"/>
       <c r="CD35" s="39"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -6338,7 +6566,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -6347,7 +6575,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -6356,7 +6584,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -6445,7 +6673,7 @@
       <c r="CC39" s="36"/>
       <c r="CD39" s="36"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -6528,7 +6756,7 @@
       <c r="CC40" s="36"/>
       <c r="CD40" s="36"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -6617,7 +6845,7 @@
       <c r="CC41" s="46"/>
       <c r="CD41" s="46"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -6700,7 +6928,7 @@
       <c r="CC42" s="46"/>
       <c r="CD42" s="46"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -6783,7 +7011,7 @@
       <c r="CC43" s="46"/>
       <c r="CD43" s="46"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -6868,7 +7096,7 @@
       <c r="CC44" s="36"/>
       <c r="CD44" s="36"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -6951,7 +7179,7 @@
       <c r="CC45" s="36"/>
       <c r="CD45" s="36"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -6988,7 +7216,7 @@
       <c r="AI46" s="37"/>
       <c r="AJ46" s="37"/>
       <c r="AK46" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL46" s="39"/>
       <c r="AM46" s="39"/>
@@ -7036,7 +7264,7 @@
       <c r="CC46" s="39"/>
       <c r="CD46" s="39"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -7119,7 +7347,7 @@
       <c r="CC47" s="39"/>
       <c r="CD47" s="39"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -7202,7 +7430,7 @@
       <c r="CC48" s="39"/>
       <c r="CD48" s="39"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -7285,7 +7513,7 @@
       <c r="CC49" s="39"/>
       <c r="CD49" s="39"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -7368,7 +7596,7 @@
       <c r="CC50" s="39"/>
       <c r="CD50" s="39"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -7451,7 +7679,7 @@
       <c r="CC51" s="39"/>
       <c r="CD51" s="39"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
@@ -7527,7 +7755,7 @@
       <c r="CC52" s="39"/>
       <c r="CD52" s="39"/>
     </row>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
@@ -7603,7 +7831,7 @@
       <c r="CC53" s="39"/>
       <c r="CD53" s="39"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
@@ -7679,7 +7907,7 @@
       <c r="CC54" s="39"/>
       <c r="CD54" s="39"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
@@ -7755,7 +7983,7 @@
       <c r="CC55" s="39"/>
       <c r="CD55" s="39"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
@@ -7831,7 +8059,7 @@
       <c r="CC56" s="39"/>
       <c r="CD56" s="39"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
@@ -7907,7 +8135,7 @@
       <c r="CC57" s="39"/>
       <c r="CD57" s="39"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
@@ -7983,7 +8211,7 @@
       <c r="CC58" s="39"/>
       <c r="CD58" s="39"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
@@ -8059,7 +8287,7 @@
       <c r="CC59" s="39"/>
       <c r="CD59" s="39"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
@@ -8135,7 +8363,7 @@
       <c r="CC60" s="39"/>
       <c r="CD60" s="39"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
@@ -8211,7 +8439,7 @@
       <c r="CC61" s="39"/>
       <c r="CD61" s="39"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
       <c r="K62" s="37"/>
@@ -8287,7 +8515,7 @@
       <c r="CC62" s="39"/>
       <c r="CD62" s="39"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
@@ -8363,8 +8591,8 @@
       <c r="CC63" s="39"/>
       <c r="CD63" s="39"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I67" s="36" t="s">
         <v>21</v>
       </c>
@@ -8446,7 +8674,7 @@
       <c r="CC67" s="36"/>
       <c r="CD67" s="36"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
@@ -8522,7 +8750,7 @@
       <c r="CC68" s="36"/>
       <c r="CD68" s="36"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I69" s="46" t="s">
         <v>18</v>
       </c>
@@ -8604,7 +8832,7 @@
       <c r="CC69" s="46"/>
       <c r="CD69" s="46"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
       <c r="K70" s="46"/>
@@ -8680,7 +8908,7 @@
       <c r="CC70" s="46"/>
       <c r="CD70" s="46"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I71" s="46"/>
       <c r="J71" s="46"/>
       <c r="K71" s="46"/>
@@ -8756,7 +8984,7 @@
       <c r="CC71" s="46"/>
       <c r="CD71" s="46"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I72" s="36" t="s">
         <v>16</v>
       </c>
@@ -8834,7 +9062,7 @@
       <c r="CC72" s="36"/>
       <c r="CD72" s="36"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -8910,7 +9138,7 @@
       <c r="CC73" s="36"/>
       <c r="CD73" s="36"/>
     </row>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I74" s="37"/>
       <c r="J74" s="37"/>
       <c r="K74" s="37"/>
@@ -8940,7 +9168,7 @@
       <c r="AI74" s="37"/>
       <c r="AJ74" s="37"/>
       <c r="AK74" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL74" s="39"/>
       <c r="AM74" s="39"/>
@@ -8988,7 +9216,7 @@
       <c r="CC74" s="39"/>
       <c r="CD74" s="39"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
       <c r="K75" s="37"/>
@@ -9064,7 +9292,7 @@
       <c r="CC75" s="39"/>
       <c r="CD75" s="39"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
@@ -9140,7 +9368,7 @@
       <c r="CC76" s="39"/>
       <c r="CD76" s="39"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I77" s="37"/>
       <c r="J77" s="37"/>
       <c r="K77" s="37"/>
@@ -9216,7 +9444,7 @@
       <c r="CC77" s="39"/>
       <c r="CD77" s="39"/>
     </row>
-    <row r="78" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
       <c r="K78" s="37"/>
@@ -9292,7 +9520,7 @@
       <c r="CC78" s="39"/>
       <c r="CD78" s="39"/>
     </row>
-    <row r="79" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
       <c r="K79" s="37"/>
@@ -9368,7 +9596,7 @@
       <c r="CC79" s="39"/>
       <c r="CD79" s="39"/>
     </row>
-    <row r="80" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
@@ -9444,7 +9672,7 @@
       <c r="CC80" s="39"/>
       <c r="CD80" s="39"/>
     </row>
-    <row r="81" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
       <c r="K81" s="37"/>
@@ -9520,7 +9748,7 @@
       <c r="CC81" s="39"/>
       <c r="CD81" s="39"/>
     </row>
-    <row r="82" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
       <c r="K82" s="37"/>
@@ -9596,7 +9824,7 @@
       <c r="CC82" s="39"/>
       <c r="CD82" s="39"/>
     </row>
-    <row r="83" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
       <c r="K83" s="37"/>
@@ -9672,7 +9900,7 @@
       <c r="CC83" s="39"/>
       <c r="CD83" s="39"/>
     </row>
-    <row r="84" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
@@ -9748,7 +9976,7 @@
       <c r="CC84" s="39"/>
       <c r="CD84" s="39"/>
     </row>
-    <row r="85" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
       <c r="K85" s="37"/>
@@ -9824,7 +10052,7 @@
       <c r="CC85" s="39"/>
       <c r="CD85" s="39"/>
     </row>
-    <row r="86" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
@@ -9900,7 +10128,7 @@
       <c r="CC86" s="39"/>
       <c r="CD86" s="39"/>
     </row>
-    <row r="87" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
       <c r="K87" s="37"/>
@@ -9976,7 +10204,7 @@
       <c r="CC87" s="39"/>
       <c r="CD87" s="39"/>
     </row>
-    <row r="88" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
@@ -10052,7 +10280,7 @@
       <c r="CC88" s="39"/>
       <c r="CD88" s="39"/>
     </row>
-    <row r="89" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
       <c r="K89" s="37"/>
@@ -10128,7 +10356,7 @@
       <c r="CC89" s="39"/>
       <c r="CD89" s="39"/>
     </row>
-    <row r="90" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
       <c r="K90" s="37"/>
@@ -10204,7 +10432,7 @@
       <c r="CC90" s="39"/>
       <c r="CD90" s="39"/>
     </row>
-    <row r="91" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
       <c r="K91" s="37"/>
@@ -10280,8 +10508,8 @@
       <c r="CC91" s="39"/>
       <c r="CD91" s="39"/>
     </row>
-    <row r="94" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="95" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I95" s="36" t="s">
         <v>21</v>
       </c>
@@ -10363,7 +10591,7 @@
       <c r="CC95" s="36"/>
       <c r="CD95" s="36"/>
     </row>
-    <row r="96" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
@@ -10439,7 +10667,7 @@
       <c r="CC96" s="36"/>
       <c r="CD96" s="36"/>
     </row>
-    <row r="97" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I97" s="46" t="s">
         <v>29</v>
       </c>
@@ -10521,7 +10749,7 @@
       <c r="CC97" s="46"/>
       <c r="CD97" s="46"/>
     </row>
-    <row r="98" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I98" s="46"/>
       <c r="J98" s="46"/>
       <c r="K98" s="46"/>
@@ -10597,7 +10825,7 @@
       <c r="CC98" s="46"/>
       <c r="CD98" s="46"/>
     </row>
-    <row r="99" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I99" s="46"/>
       <c r="J99" s="46"/>
       <c r="K99" s="46"/>
@@ -10673,7 +10901,7 @@
       <c r="CC99" s="46"/>
       <c r="CD99" s="46"/>
     </row>
-    <row r="100" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I100" s="36" t="s">
         <v>16</v>
       </c>
@@ -10751,7 +10979,7 @@
       <c r="CC100" s="36"/>
       <c r="CD100" s="36"/>
     </row>
-    <row r="101" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
@@ -10827,7 +11055,7 @@
       <c r="CC101" s="36"/>
       <c r="CD101" s="36"/>
     </row>
-    <row r="102" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I102" s="37"/>
       <c r="J102" s="37"/>
       <c r="K102" s="37"/>
@@ -10857,7 +11085,7 @@
       <c r="AI102" s="37"/>
       <c r="AJ102" s="37"/>
       <c r="AK102" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL102" s="39"/>
       <c r="AM102" s="39"/>
@@ -10905,7 +11133,7 @@
       <c r="CC102" s="39"/>
       <c r="CD102" s="39"/>
     </row>
-    <row r="103" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I103" s="37"/>
       <c r="J103" s="37"/>
       <c r="K103" s="37"/>
@@ -10981,7 +11209,7 @@
       <c r="CC103" s="39"/>
       <c r="CD103" s="39"/>
     </row>
-    <row r="104" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I104" s="37"/>
       <c r="J104" s="37"/>
       <c r="K104" s="37"/>
@@ -11057,7 +11285,7 @@
       <c r="CC104" s="39"/>
       <c r="CD104" s="39"/>
     </row>
-    <row r="105" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I105" s="37"/>
       <c r="J105" s="37"/>
       <c r="K105" s="37"/>
@@ -11133,7 +11361,7 @@
       <c r="CC105" s="39"/>
       <c r="CD105" s="39"/>
     </row>
-    <row r="106" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I106" s="37"/>
       <c r="J106" s="37"/>
       <c r="K106" s="37"/>
@@ -11209,7 +11437,7 @@
       <c r="CC106" s="39"/>
       <c r="CD106" s="39"/>
     </row>
-    <row r="107" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I107" s="37"/>
       <c r="J107" s="37"/>
       <c r="K107" s="37"/>
@@ -11285,7 +11513,7 @@
       <c r="CC107" s="39"/>
       <c r="CD107" s="39"/>
     </row>
-    <row r="108" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I108" s="37"/>
       <c r="J108" s="37"/>
       <c r="K108" s="37"/>
@@ -11361,7 +11589,7 @@
       <c r="CC108" s="39"/>
       <c r="CD108" s="39"/>
     </row>
-    <row r="109" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I109" s="37"/>
       <c r="J109" s="37"/>
       <c r="K109" s="37"/>
@@ -11437,7 +11665,7 @@
       <c r="CC109" s="39"/>
       <c r="CD109" s="39"/>
     </row>
-    <row r="110" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I110" s="37"/>
       <c r="J110" s="37"/>
       <c r="K110" s="37"/>
@@ -11513,7 +11741,7 @@
       <c r="CC110" s="39"/>
       <c r="CD110" s="39"/>
     </row>
-    <row r="111" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I111" s="37"/>
       <c r="J111" s="37"/>
       <c r="K111" s="37"/>
@@ -11589,7 +11817,7 @@
       <c r="CC111" s="39"/>
       <c r="CD111" s="39"/>
     </row>
-    <row r="112" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I112" s="37"/>
       <c r="J112" s="37"/>
       <c r="K112" s="37"/>
@@ -11665,7 +11893,7 @@
       <c r="CC112" s="39"/>
       <c r="CD112" s="39"/>
     </row>
-    <row r="113" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I113" s="37"/>
       <c r="J113" s="37"/>
       <c r="K113" s="37"/>
@@ -11741,7 +11969,7 @@
       <c r="CC113" s="39"/>
       <c r="CD113" s="39"/>
     </row>
-    <row r="114" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I114" s="37"/>
       <c r="J114" s="37"/>
       <c r="K114" s="37"/>
@@ -11817,7 +12045,7 @@
       <c r="CC114" s="39"/>
       <c r="CD114" s="39"/>
     </row>
-    <row r="115" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I115" s="37"/>
       <c r="J115" s="37"/>
       <c r="K115" s="37"/>
@@ -11893,7 +12121,7 @@
       <c r="CC115" s="39"/>
       <c r="CD115" s="39"/>
     </row>
-    <row r="116" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I116" s="37"/>
       <c r="J116" s="37"/>
       <c r="K116" s="37"/>
@@ -11969,7 +12197,7 @@
       <c r="CC116" s="39"/>
       <c r="CD116" s="39"/>
     </row>
-    <row r="117" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I117" s="37"/>
       <c r="J117" s="37"/>
       <c r="K117" s="37"/>
@@ -12045,7 +12273,7 @@
       <c r="CC117" s="39"/>
       <c r="CD117" s="39"/>
     </row>
-    <row r="118" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I118" s="37"/>
       <c r="J118" s="37"/>
       <c r="K118" s="37"/>
@@ -12121,7 +12349,7 @@
       <c r="CC118" s="39"/>
       <c r="CD118" s="39"/>
     </row>
-    <row r="119" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I119" s="37"/>
       <c r="J119" s="37"/>
       <c r="K119" s="37"/>
@@ -12197,8 +12425,8 @@
       <c r="CC119" s="39"/>
       <c r="CD119" s="39"/>
     </row>
-    <row r="122" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="123" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="123" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I123" s="36" t="s">
         <v>21</v>
       </c>
@@ -12280,7 +12508,7 @@
       <c r="CC123" s="36"/>
       <c r="CD123" s="36"/>
     </row>
-    <row r="124" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
       <c r="K124" s="36"/>
@@ -12356,7 +12584,7 @@
       <c r="CC124" s="36"/>
       <c r="CD124" s="36"/>
     </row>
-    <row r="125" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I125" s="46" t="s">
         <v>20</v>
       </c>
@@ -12436,7 +12664,7 @@
       <c r="CC125" s="46"/>
       <c r="CD125" s="46"/>
     </row>
-    <row r="126" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I126" s="46"/>
       <c r="J126" s="46"/>
       <c r="K126" s="46"/>
@@ -12512,7 +12740,7 @@
       <c r="CC126" s="46"/>
       <c r="CD126" s="46"/>
     </row>
-    <row r="127" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I127" s="46"/>
       <c r="J127" s="46"/>
       <c r="K127" s="46"/>
@@ -12588,7 +12816,7 @@
       <c r="CC127" s="46"/>
       <c r="CD127" s="46"/>
     </row>
-    <row r="128" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I128" s="36" t="s">
         <v>16</v>
       </c>
@@ -12666,7 +12894,7 @@
       <c r="CC128" s="36"/>
       <c r="CD128" s="36"/>
     </row>
-    <row r="129" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I129" s="36"/>
       <c r="J129" s="36"/>
       <c r="K129" s="36"/>
@@ -12742,7 +12970,7 @@
       <c r="CC129" s="36"/>
       <c r="CD129" s="36"/>
     </row>
-    <row r="130" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I130" s="37"/>
       <c r="J130" s="37"/>
       <c r="K130" s="37"/>
@@ -12820,7 +13048,7 @@
       <c r="CC130" s="39"/>
       <c r="CD130" s="39"/>
     </row>
-    <row r="131" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I131" s="37"/>
       <c r="J131" s="37"/>
       <c r="K131" s="37"/>
@@ -12896,7 +13124,7 @@
       <c r="CC131" s="39"/>
       <c r="CD131" s="39"/>
     </row>
-    <row r="132" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I132" s="37"/>
       <c r="J132" s="37"/>
       <c r="K132" s="37"/>
@@ -12972,7 +13200,7 @@
       <c r="CC132" s="39"/>
       <c r="CD132" s="39"/>
     </row>
-    <row r="133" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I133" s="37"/>
       <c r="J133" s="37"/>
       <c r="K133" s="37"/>
@@ -13048,7 +13276,7 @@
       <c r="CC133" s="39"/>
       <c r="CD133" s="39"/>
     </row>
-    <row r="134" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I134" s="37"/>
       <c r="J134" s="37"/>
       <c r="K134" s="37"/>
@@ -13124,7 +13352,7 @@
       <c r="CC134" s="39"/>
       <c r="CD134" s="39"/>
     </row>
-    <row r="135" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I135" s="37"/>
       <c r="J135" s="37"/>
       <c r="K135" s="37"/>
@@ -13200,7 +13428,7 @@
       <c r="CC135" s="39"/>
       <c r="CD135" s="39"/>
     </row>
-    <row r="136" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I136" s="37"/>
       <c r="J136" s="37"/>
       <c r="K136" s="37"/>
@@ -13276,7 +13504,7 @@
       <c r="CC136" s="39"/>
       <c r="CD136" s="39"/>
     </row>
-    <row r="137" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I137" s="37"/>
       <c r="J137" s="37"/>
       <c r="K137" s="37"/>
@@ -13352,7 +13580,7 @@
       <c r="CC137" s="39"/>
       <c r="CD137" s="39"/>
     </row>
-    <row r="138" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I138" s="37"/>
       <c r="J138" s="37"/>
       <c r="K138" s="37"/>
@@ -13428,7 +13656,7 @@
       <c r="CC138" s="39"/>
       <c r="CD138" s="39"/>
     </row>
-    <row r="139" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="139" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I139" s="37"/>
       <c r="J139" s="37"/>
       <c r="K139" s="37"/>
@@ -13504,7 +13732,7 @@
       <c r="CC139" s="39"/>
       <c r="CD139" s="39"/>
     </row>
-    <row r="140" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I140" s="37"/>
       <c r="J140" s="37"/>
       <c r="K140" s="37"/>
@@ -13580,7 +13808,7 @@
       <c r="CC140" s="39"/>
       <c r="CD140" s="39"/>
     </row>
-    <row r="141" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I141" s="37"/>
       <c r="J141" s="37"/>
       <c r="K141" s="37"/>
@@ -13656,7 +13884,7 @@
       <c r="CC141" s="39"/>
       <c r="CD141" s="39"/>
     </row>
-    <row r="142" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I142" s="37"/>
       <c r="J142" s="37"/>
       <c r="K142" s="37"/>
@@ -13732,7 +13960,7 @@
       <c r="CC142" s="39"/>
       <c r="CD142" s="39"/>
     </row>
-    <row r="143" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I143" s="37"/>
       <c r="J143" s="37"/>
       <c r="K143" s="37"/>
@@ -13808,7 +14036,7 @@
       <c r="CC143" s="39"/>
       <c r="CD143" s="39"/>
     </row>
-    <row r="144" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I144" s="37"/>
       <c r="J144" s="37"/>
       <c r="K144" s="37"/>
@@ -13884,7 +14112,7 @@
       <c r="CC144" s="39"/>
       <c r="CD144" s="39"/>
     </row>
-    <row r="145" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I145" s="37"/>
       <c r="J145" s="37"/>
       <c r="K145" s="37"/>
@@ -13960,7 +14188,7 @@
       <c r="CC145" s="39"/>
       <c r="CD145" s="39"/>
     </row>
-    <row r="146" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I146" s="37"/>
       <c r="J146" s="37"/>
       <c r="K146" s="37"/>
@@ -14036,7 +14264,7 @@
       <c r="CC146" s="39"/>
       <c r="CD146" s="39"/>
     </row>
-    <row r="147" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I147" s="37"/>
       <c r="J147" s="37"/>
       <c r="K147" s="37"/>
@@ -14112,8 +14340,8 @@
       <c r="CC147" s="39"/>
       <c r="CD147" s="39"/>
     </row>
-    <row r="150" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="151" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="151" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I151" s="36" t="s">
         <v>21</v>
       </c>
@@ -14195,7 +14423,7 @@
       <c r="CC151" s="36"/>
       <c r="CD151" s="36"/>
     </row>
-    <row r="152" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I152" s="36"/>
       <c r="J152" s="36"/>
       <c r="K152" s="36"/>
@@ -14271,7 +14499,7 @@
       <c r="CC152" s="36"/>
       <c r="CD152" s="36"/>
     </row>
-    <row r="153" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I153" s="46" t="s">
         <v>28</v>
       </c>
@@ -14353,7 +14581,7 @@
       <c r="CC153" s="46"/>
       <c r="CD153" s="46"/>
     </row>
-    <row r="154" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I154" s="46"/>
       <c r="J154" s="46"/>
       <c r="K154" s="46"/>
@@ -14429,7 +14657,7 @@
       <c r="CC154" s="46"/>
       <c r="CD154" s="46"/>
     </row>
-    <row r="155" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I155" s="46"/>
       <c r="J155" s="46"/>
       <c r="K155" s="46"/>
@@ -14505,7 +14733,7 @@
       <c r="CC155" s="46"/>
       <c r="CD155" s="46"/>
     </row>
-    <row r="156" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I156" s="36" t="s">
         <v>16</v>
       </c>
@@ -14583,7 +14811,7 @@
       <c r="CC156" s="36"/>
       <c r="CD156" s="36"/>
     </row>
-    <row r="157" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I157" s="36"/>
       <c r="J157" s="36"/>
       <c r="K157" s="36"/>
@@ -14659,7 +14887,7 @@
       <c r="CC157" s="36"/>
       <c r="CD157" s="36"/>
     </row>
-    <row r="158" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I158" s="37"/>
       <c r="J158" s="37"/>
       <c r="K158" s="37"/>
@@ -14689,7 +14917,7 @@
       <c r="AI158" s="37"/>
       <c r="AJ158" s="37"/>
       <c r="AK158" s="38" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AL158" s="39"/>
       <c r="AM158" s="39"/>
@@ -14737,7 +14965,7 @@
       <c r="CC158" s="39"/>
       <c r="CD158" s="39"/>
     </row>
-    <row r="159" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I159" s="37"/>
       <c r="J159" s="37"/>
       <c r="K159" s="37"/>
@@ -14813,7 +15041,7 @@
       <c r="CC159" s="39"/>
       <c r="CD159" s="39"/>
     </row>
-    <row r="160" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="160" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I160" s="37"/>
       <c r="J160" s="37"/>
       <c r="K160" s="37"/>
@@ -14889,7 +15117,7 @@
       <c r="CC160" s="39"/>
       <c r="CD160" s="39"/>
     </row>
-    <row r="161" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="161" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I161" s="37"/>
       <c r="J161" s="37"/>
       <c r="K161" s="37"/>
@@ -14965,7 +15193,7 @@
       <c r="CC161" s="39"/>
       <c r="CD161" s="39"/>
     </row>
-    <row r="162" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I162" s="37"/>
       <c r="J162" s="37"/>
       <c r="K162" s="37"/>
@@ -15041,7 +15269,7 @@
       <c r="CC162" s="39"/>
       <c r="CD162" s="39"/>
     </row>
-    <row r="163" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I163" s="37"/>
       <c r="J163" s="37"/>
       <c r="K163" s="37"/>
@@ -15117,7 +15345,7 @@
       <c r="CC163" s="39"/>
       <c r="CD163" s="39"/>
     </row>
-    <row r="164" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="164" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I164" s="37"/>
       <c r="J164" s="37"/>
       <c r="K164" s="37"/>
@@ -15193,7 +15421,7 @@
       <c r="CC164" s="39"/>
       <c r="CD164" s="39"/>
     </row>
-    <row r="165" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="165" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I165" s="37"/>
       <c r="J165" s="37"/>
       <c r="K165" s="37"/>
@@ -15269,7 +15497,7 @@
       <c r="CC165" s="39"/>
       <c r="CD165" s="39"/>
     </row>
-    <row r="166" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="166" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I166" s="37"/>
       <c r="J166" s="37"/>
       <c r="K166" s="37"/>
@@ -15345,7 +15573,7 @@
       <c r="CC166" s="39"/>
       <c r="CD166" s="39"/>
     </row>
-    <row r="167" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I167" s="37"/>
       <c r="J167" s="37"/>
       <c r="K167" s="37"/>
@@ -15421,7 +15649,7 @@
       <c r="CC167" s="39"/>
       <c r="CD167" s="39"/>
     </row>
-    <row r="168" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I168" s="37"/>
       <c r="J168" s="37"/>
       <c r="K168" s="37"/>
@@ -15497,7 +15725,7 @@
       <c r="CC168" s="39"/>
       <c r="CD168" s="39"/>
     </row>
-    <row r="169" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I169" s="37"/>
       <c r="J169" s="37"/>
       <c r="K169" s="37"/>
@@ -15573,7 +15801,7 @@
       <c r="CC169" s="39"/>
       <c r="CD169" s="39"/>
     </row>
-    <row r="170" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I170" s="37"/>
       <c r="J170" s="37"/>
       <c r="K170" s="37"/>
@@ -15649,7 +15877,7 @@
       <c r="CC170" s="39"/>
       <c r="CD170" s="39"/>
     </row>
-    <row r="171" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
       <c r="K171" s="37"/>
@@ -15725,7 +15953,7 @@
       <c r="CC171" s="39"/>
       <c r="CD171" s="39"/>
     </row>
-    <row r="172" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I172" s="37"/>
       <c r="J172" s="37"/>
       <c r="K172" s="37"/>
@@ -15801,7 +16029,7 @@
       <c r="CC172" s="39"/>
       <c r="CD172" s="39"/>
     </row>
-    <row r="173" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="173" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I173" s="37"/>
       <c r="J173" s="37"/>
       <c r="K173" s="37"/>
@@ -15877,7 +16105,7 @@
       <c r="CC173" s="39"/>
       <c r="CD173" s="39"/>
     </row>
-    <row r="174" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I174" s="37"/>
       <c r="J174" s="37"/>
       <c r="K174" s="37"/>
@@ -15953,7 +16181,7 @@
       <c r="CC174" s="39"/>
       <c r="CD174" s="39"/>
     </row>
-    <row r="175" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I175" s="37"/>
       <c r="J175" s="37"/>
       <c r="K175" s="37"/>
